--- a/biology/Médecine/Patricia_Salen/Patricia_Salen.xlsx
+++ b/biology/Médecine/Patricia_Salen/Patricia_Salen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Patricia Salen est une diététicienne nutritionniste française. Co-investigatrice historique dans les années 1990 avec Serge Renaud et Michel de Lorgeril de la diète méditerranéenne et du paradoxe français, elle a co-publié quelques ouvrages de références et près de 150 articles sur ce sujet. 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Patricia Salen est assistante de recherche clinique, spécialisée en nutrition clinique et participe à différents programmes de recherche français et européens en nutrition. 
 De 1987 à 1996 elle est responsable avec les chercheurs Serge Renaud (dirigeant de l'Institut national de la santé et de la recherche médicale de Lyon (INSERM)), et Michel de Lorgeril, cardiologue et chercheur CNRS, de la mise au point et de la réalisation des programmes de recherche en nutrition et des évaluations d'études en lien avec la diète méditerranéenne et le « paradoxe français ».
